--- a/6-新电机/崔总小风机BOM.xlsx
+++ b/6-新电机/崔总小风机BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>小风机 B O M 表</t>
   </si>
@@ -61,10 +61,10 @@
     <t>备注</t>
   </si>
   <si>
-    <t>定子铁芯（涂覆绝缘）</t>
-  </si>
-  <si>
-    <t>20WTG1500</t>
+    <t>定子铁芯</t>
+  </si>
+  <si>
+    <t>B35A270</t>
   </si>
   <si>
     <t>见图纸</t>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>叶轮</t>
+  </si>
+  <si>
+    <t>PPS+30GF</t>
   </si>
   <si>
     <t>铜T型垫圈</t>
@@ -159,13 +162,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -240,7 +243,119 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,92 +369,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,40 +384,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -403,13 +406,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,31 +538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,43 +556,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,85 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,36 +628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -666,15 +639,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,10 +660,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -714,6 +676,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -722,6 +714,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,10 +733,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,136 +745,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -896,7 +899,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,7 +935,7 @@
     <xf numFmtId="7" fontId="9" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -971,7 +974,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1304,25 +1307,25 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.775" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.1083333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.775" style="3" customWidth="1"/>
-    <col min="5" max="6" width="8.775" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.8916666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.775" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="3" customWidth="1"/>
+    <col min="5" max="6" width="8.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="22" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.3333333333333" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.375" style="3" customWidth="1"/>
     <col min="11" max="245" width="9" style="5"/>
     <col min="246" max="246" width="5.75" style="5" customWidth="1"/>
     <col min="247" max="247" width="13" style="5" customWidth="1"/>
-    <col min="248" max="248" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="249" max="249" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="248" max="248" width="15.125" style="5" customWidth="1"/>
+    <col min="249" max="249" width="20.375" style="5" customWidth="1"/>
     <col min="250" max="250" width="15.25" style="5" customWidth="1"/>
     <col min="251" max="251" width="28.25" style="5" customWidth="1"/>
     <col min="252" max="252" width="5.5" style="5" customWidth="1"/>
@@ -1332,8 +1335,8 @@
     <col min="256" max="501" width="9" style="5"/>
     <col min="502" max="502" width="5.75" style="5" customWidth="1"/>
     <col min="503" max="503" width="13" style="5" customWidth="1"/>
-    <col min="504" max="504" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="505" max="505" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="504" max="504" width="15.125" style="5" customWidth="1"/>
+    <col min="505" max="505" width="20.375" style="5" customWidth="1"/>
     <col min="506" max="506" width="15.25" style="5" customWidth="1"/>
     <col min="507" max="507" width="28.25" style="5" customWidth="1"/>
     <col min="508" max="508" width="5.5" style="5" customWidth="1"/>
@@ -1343,8 +1346,8 @@
     <col min="512" max="757" width="9" style="5"/>
     <col min="758" max="758" width="5.75" style="5" customWidth="1"/>
     <col min="759" max="759" width="13" style="5" customWidth="1"/>
-    <col min="760" max="760" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="761" max="761" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="760" max="760" width="15.125" style="5" customWidth="1"/>
+    <col min="761" max="761" width="20.375" style="5" customWidth="1"/>
     <col min="762" max="762" width="15.25" style="5" customWidth="1"/>
     <col min="763" max="763" width="28.25" style="5" customWidth="1"/>
     <col min="764" max="764" width="5.5" style="5" customWidth="1"/>
@@ -1354,8 +1357,8 @@
     <col min="768" max="1013" width="9" style="5"/>
     <col min="1014" max="1014" width="5.75" style="5" customWidth="1"/>
     <col min="1015" max="1015" width="13" style="5" customWidth="1"/>
-    <col min="1016" max="1016" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="1017" max="1017" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="1016" max="1016" width="15.125" style="5" customWidth="1"/>
+    <col min="1017" max="1017" width="20.375" style="5" customWidth="1"/>
     <col min="1018" max="1018" width="15.25" style="5" customWidth="1"/>
     <col min="1019" max="1019" width="28.25" style="5" customWidth="1"/>
     <col min="1020" max="1020" width="5.5" style="5" customWidth="1"/>
@@ -1365,8 +1368,8 @@
     <col min="1024" max="1269" width="9" style="5"/>
     <col min="1270" max="1270" width="5.75" style="5" customWidth="1"/>
     <col min="1271" max="1271" width="13" style="5" customWidth="1"/>
-    <col min="1272" max="1272" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="1273" max="1273" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="1272" max="1272" width="15.125" style="5" customWidth="1"/>
+    <col min="1273" max="1273" width="20.375" style="5" customWidth="1"/>
     <col min="1274" max="1274" width="15.25" style="5" customWidth="1"/>
     <col min="1275" max="1275" width="28.25" style="5" customWidth="1"/>
     <col min="1276" max="1276" width="5.5" style="5" customWidth="1"/>
@@ -1376,8 +1379,8 @@
     <col min="1280" max="1525" width="9" style="5"/>
     <col min="1526" max="1526" width="5.75" style="5" customWidth="1"/>
     <col min="1527" max="1527" width="13" style="5" customWidth="1"/>
-    <col min="1528" max="1528" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="1529" max="1529" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="1528" max="1528" width="15.125" style="5" customWidth="1"/>
+    <col min="1529" max="1529" width="20.375" style="5" customWidth="1"/>
     <col min="1530" max="1530" width="15.25" style="5" customWidth="1"/>
     <col min="1531" max="1531" width="28.25" style="5" customWidth="1"/>
     <col min="1532" max="1532" width="5.5" style="5" customWidth="1"/>
@@ -1387,8 +1390,8 @@
     <col min="1536" max="1781" width="9" style="5"/>
     <col min="1782" max="1782" width="5.75" style="5" customWidth="1"/>
     <col min="1783" max="1783" width="13" style="5" customWidth="1"/>
-    <col min="1784" max="1784" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="1785" max="1785" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="1784" max="1784" width="15.125" style="5" customWidth="1"/>
+    <col min="1785" max="1785" width="20.375" style="5" customWidth="1"/>
     <col min="1786" max="1786" width="15.25" style="5" customWidth="1"/>
     <col min="1787" max="1787" width="28.25" style="5" customWidth="1"/>
     <col min="1788" max="1788" width="5.5" style="5" customWidth="1"/>
@@ -1398,8 +1401,8 @@
     <col min="1792" max="2037" width="9" style="5"/>
     <col min="2038" max="2038" width="5.75" style="5" customWidth="1"/>
     <col min="2039" max="2039" width="13" style="5" customWidth="1"/>
-    <col min="2040" max="2040" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="2041" max="2041" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="2040" max="2040" width="15.125" style="5" customWidth="1"/>
+    <col min="2041" max="2041" width="20.375" style="5" customWidth="1"/>
     <col min="2042" max="2042" width="15.25" style="5" customWidth="1"/>
     <col min="2043" max="2043" width="28.25" style="5" customWidth="1"/>
     <col min="2044" max="2044" width="5.5" style="5" customWidth="1"/>
@@ -1409,8 +1412,8 @@
     <col min="2048" max="2293" width="9" style="5"/>
     <col min="2294" max="2294" width="5.75" style="5" customWidth="1"/>
     <col min="2295" max="2295" width="13" style="5" customWidth="1"/>
-    <col min="2296" max="2296" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="2297" max="2297" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="2296" max="2296" width="15.125" style="5" customWidth="1"/>
+    <col min="2297" max="2297" width="20.375" style="5" customWidth="1"/>
     <col min="2298" max="2298" width="15.25" style="5" customWidth="1"/>
     <col min="2299" max="2299" width="28.25" style="5" customWidth="1"/>
     <col min="2300" max="2300" width="5.5" style="5" customWidth="1"/>
@@ -1420,8 +1423,8 @@
     <col min="2304" max="2549" width="9" style="5"/>
     <col min="2550" max="2550" width="5.75" style="5" customWidth="1"/>
     <col min="2551" max="2551" width="13" style="5" customWidth="1"/>
-    <col min="2552" max="2552" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="2553" max="2553" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="2552" max="2552" width="15.125" style="5" customWidth="1"/>
+    <col min="2553" max="2553" width="20.375" style="5" customWidth="1"/>
     <col min="2554" max="2554" width="15.25" style="5" customWidth="1"/>
     <col min="2555" max="2555" width="28.25" style="5" customWidth="1"/>
     <col min="2556" max="2556" width="5.5" style="5" customWidth="1"/>
@@ -1431,8 +1434,8 @@
     <col min="2560" max="2805" width="9" style="5"/>
     <col min="2806" max="2806" width="5.75" style="5" customWidth="1"/>
     <col min="2807" max="2807" width="13" style="5" customWidth="1"/>
-    <col min="2808" max="2808" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="2809" max="2809" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="2808" max="2808" width="15.125" style="5" customWidth="1"/>
+    <col min="2809" max="2809" width="20.375" style="5" customWidth="1"/>
     <col min="2810" max="2810" width="15.25" style="5" customWidth="1"/>
     <col min="2811" max="2811" width="28.25" style="5" customWidth="1"/>
     <col min="2812" max="2812" width="5.5" style="5" customWidth="1"/>
@@ -1442,8 +1445,8 @@
     <col min="2816" max="3061" width="9" style="5"/>
     <col min="3062" max="3062" width="5.75" style="5" customWidth="1"/>
     <col min="3063" max="3063" width="13" style="5" customWidth="1"/>
-    <col min="3064" max="3064" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="3065" max="3065" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="3064" max="3064" width="15.125" style="5" customWidth="1"/>
+    <col min="3065" max="3065" width="20.375" style="5" customWidth="1"/>
     <col min="3066" max="3066" width="15.25" style="5" customWidth="1"/>
     <col min="3067" max="3067" width="28.25" style="5" customWidth="1"/>
     <col min="3068" max="3068" width="5.5" style="5" customWidth="1"/>
@@ -1453,8 +1456,8 @@
     <col min="3072" max="3317" width="9" style="5"/>
     <col min="3318" max="3318" width="5.75" style="5" customWidth="1"/>
     <col min="3319" max="3319" width="13" style="5" customWidth="1"/>
-    <col min="3320" max="3320" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="3321" max="3321" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="3320" max="3320" width="15.125" style="5" customWidth="1"/>
+    <col min="3321" max="3321" width="20.375" style="5" customWidth="1"/>
     <col min="3322" max="3322" width="15.25" style="5" customWidth="1"/>
     <col min="3323" max="3323" width="28.25" style="5" customWidth="1"/>
     <col min="3324" max="3324" width="5.5" style="5" customWidth="1"/>
@@ -1464,8 +1467,8 @@
     <col min="3328" max="3573" width="9" style="5"/>
     <col min="3574" max="3574" width="5.75" style="5" customWidth="1"/>
     <col min="3575" max="3575" width="13" style="5" customWidth="1"/>
-    <col min="3576" max="3576" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="3577" max="3577" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="3576" max="3576" width="15.125" style="5" customWidth="1"/>
+    <col min="3577" max="3577" width="20.375" style="5" customWidth="1"/>
     <col min="3578" max="3578" width="15.25" style="5" customWidth="1"/>
     <col min="3579" max="3579" width="28.25" style="5" customWidth="1"/>
     <col min="3580" max="3580" width="5.5" style="5" customWidth="1"/>
@@ -1475,8 +1478,8 @@
     <col min="3584" max="3829" width="9" style="5"/>
     <col min="3830" max="3830" width="5.75" style="5" customWidth="1"/>
     <col min="3831" max="3831" width="13" style="5" customWidth="1"/>
-    <col min="3832" max="3832" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="3833" max="3833" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="3832" max="3832" width="15.125" style="5" customWidth="1"/>
+    <col min="3833" max="3833" width="20.375" style="5" customWidth="1"/>
     <col min="3834" max="3834" width="15.25" style="5" customWidth="1"/>
     <col min="3835" max="3835" width="28.25" style="5" customWidth="1"/>
     <col min="3836" max="3836" width="5.5" style="5" customWidth="1"/>
@@ -1486,8 +1489,8 @@
     <col min="3840" max="4085" width="9" style="5"/>
     <col min="4086" max="4086" width="5.75" style="5" customWidth="1"/>
     <col min="4087" max="4087" width="13" style="5" customWidth="1"/>
-    <col min="4088" max="4088" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="4089" max="4089" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="4088" max="4088" width="15.125" style="5" customWidth="1"/>
+    <col min="4089" max="4089" width="20.375" style="5" customWidth="1"/>
     <col min="4090" max="4090" width="15.25" style="5" customWidth="1"/>
     <col min="4091" max="4091" width="28.25" style="5" customWidth="1"/>
     <col min="4092" max="4092" width="5.5" style="5" customWidth="1"/>
@@ -1497,8 +1500,8 @@
     <col min="4096" max="4341" width="9" style="5"/>
     <col min="4342" max="4342" width="5.75" style="5" customWidth="1"/>
     <col min="4343" max="4343" width="13" style="5" customWidth="1"/>
-    <col min="4344" max="4344" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="4345" max="4345" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="4344" max="4344" width="15.125" style="5" customWidth="1"/>
+    <col min="4345" max="4345" width="20.375" style="5" customWidth="1"/>
     <col min="4346" max="4346" width="15.25" style="5" customWidth="1"/>
     <col min="4347" max="4347" width="28.25" style="5" customWidth="1"/>
     <col min="4348" max="4348" width="5.5" style="5" customWidth="1"/>
@@ -1508,8 +1511,8 @@
     <col min="4352" max="4597" width="9" style="5"/>
     <col min="4598" max="4598" width="5.75" style="5" customWidth="1"/>
     <col min="4599" max="4599" width="13" style="5" customWidth="1"/>
-    <col min="4600" max="4600" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="4601" max="4601" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="4600" max="4600" width="15.125" style="5" customWidth="1"/>
+    <col min="4601" max="4601" width="20.375" style="5" customWidth="1"/>
     <col min="4602" max="4602" width="15.25" style="5" customWidth="1"/>
     <col min="4603" max="4603" width="28.25" style="5" customWidth="1"/>
     <col min="4604" max="4604" width="5.5" style="5" customWidth="1"/>
@@ -1519,8 +1522,8 @@
     <col min="4608" max="4853" width="9" style="5"/>
     <col min="4854" max="4854" width="5.75" style="5" customWidth="1"/>
     <col min="4855" max="4855" width="13" style="5" customWidth="1"/>
-    <col min="4856" max="4856" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="4857" max="4857" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="4856" max="4856" width="15.125" style="5" customWidth="1"/>
+    <col min="4857" max="4857" width="20.375" style="5" customWidth="1"/>
     <col min="4858" max="4858" width="15.25" style="5" customWidth="1"/>
     <col min="4859" max="4859" width="28.25" style="5" customWidth="1"/>
     <col min="4860" max="4860" width="5.5" style="5" customWidth="1"/>
@@ -1530,8 +1533,8 @@
     <col min="4864" max="5109" width="9" style="5"/>
     <col min="5110" max="5110" width="5.75" style="5" customWidth="1"/>
     <col min="5111" max="5111" width="13" style="5" customWidth="1"/>
-    <col min="5112" max="5112" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="5113" max="5113" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="5112" max="5112" width="15.125" style="5" customWidth="1"/>
+    <col min="5113" max="5113" width="20.375" style="5" customWidth="1"/>
     <col min="5114" max="5114" width="15.25" style="5" customWidth="1"/>
     <col min="5115" max="5115" width="28.25" style="5" customWidth="1"/>
     <col min="5116" max="5116" width="5.5" style="5" customWidth="1"/>
@@ -1541,8 +1544,8 @@
     <col min="5120" max="5365" width="9" style="5"/>
     <col min="5366" max="5366" width="5.75" style="5" customWidth="1"/>
     <col min="5367" max="5367" width="13" style="5" customWidth="1"/>
-    <col min="5368" max="5368" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="5369" max="5369" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="5368" max="5368" width="15.125" style="5" customWidth="1"/>
+    <col min="5369" max="5369" width="20.375" style="5" customWidth="1"/>
     <col min="5370" max="5370" width="15.25" style="5" customWidth="1"/>
     <col min="5371" max="5371" width="28.25" style="5" customWidth="1"/>
     <col min="5372" max="5372" width="5.5" style="5" customWidth="1"/>
@@ -1552,8 +1555,8 @@
     <col min="5376" max="5621" width="9" style="5"/>
     <col min="5622" max="5622" width="5.75" style="5" customWidth="1"/>
     <col min="5623" max="5623" width="13" style="5" customWidth="1"/>
-    <col min="5624" max="5624" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="5625" max="5625" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="5624" max="5624" width="15.125" style="5" customWidth="1"/>
+    <col min="5625" max="5625" width="20.375" style="5" customWidth="1"/>
     <col min="5626" max="5626" width="15.25" style="5" customWidth="1"/>
     <col min="5627" max="5627" width="28.25" style="5" customWidth="1"/>
     <col min="5628" max="5628" width="5.5" style="5" customWidth="1"/>
@@ -1563,8 +1566,8 @@
     <col min="5632" max="5877" width="9" style="5"/>
     <col min="5878" max="5878" width="5.75" style="5" customWidth="1"/>
     <col min="5879" max="5879" width="13" style="5" customWidth="1"/>
-    <col min="5880" max="5880" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="5881" max="5881" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="5880" max="5880" width="15.125" style="5" customWidth="1"/>
+    <col min="5881" max="5881" width="20.375" style="5" customWidth="1"/>
     <col min="5882" max="5882" width="15.25" style="5" customWidth="1"/>
     <col min="5883" max="5883" width="28.25" style="5" customWidth="1"/>
     <col min="5884" max="5884" width="5.5" style="5" customWidth="1"/>
@@ -1574,8 +1577,8 @@
     <col min="5888" max="6133" width="9" style="5"/>
     <col min="6134" max="6134" width="5.75" style="5" customWidth="1"/>
     <col min="6135" max="6135" width="13" style="5" customWidth="1"/>
-    <col min="6136" max="6136" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="6137" max="6137" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="6136" max="6136" width="15.125" style="5" customWidth="1"/>
+    <col min="6137" max="6137" width="20.375" style="5" customWidth="1"/>
     <col min="6138" max="6138" width="15.25" style="5" customWidth="1"/>
     <col min="6139" max="6139" width="28.25" style="5" customWidth="1"/>
     <col min="6140" max="6140" width="5.5" style="5" customWidth="1"/>
@@ -1585,8 +1588,8 @@
     <col min="6144" max="6389" width="9" style="5"/>
     <col min="6390" max="6390" width="5.75" style="5" customWidth="1"/>
     <col min="6391" max="6391" width="13" style="5" customWidth="1"/>
-    <col min="6392" max="6392" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="6393" max="6393" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="6392" max="6392" width="15.125" style="5" customWidth="1"/>
+    <col min="6393" max="6393" width="20.375" style="5" customWidth="1"/>
     <col min="6394" max="6394" width="15.25" style="5" customWidth="1"/>
     <col min="6395" max="6395" width="28.25" style="5" customWidth="1"/>
     <col min="6396" max="6396" width="5.5" style="5" customWidth="1"/>
@@ -1596,8 +1599,8 @@
     <col min="6400" max="6645" width="9" style="5"/>
     <col min="6646" max="6646" width="5.75" style="5" customWidth="1"/>
     <col min="6647" max="6647" width="13" style="5" customWidth="1"/>
-    <col min="6648" max="6648" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="6649" max="6649" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="6648" max="6648" width="15.125" style="5" customWidth="1"/>
+    <col min="6649" max="6649" width="20.375" style="5" customWidth="1"/>
     <col min="6650" max="6650" width="15.25" style="5" customWidth="1"/>
     <col min="6651" max="6651" width="28.25" style="5" customWidth="1"/>
     <col min="6652" max="6652" width="5.5" style="5" customWidth="1"/>
@@ -1607,8 +1610,8 @@
     <col min="6656" max="6901" width="9" style="5"/>
     <col min="6902" max="6902" width="5.75" style="5" customWidth="1"/>
     <col min="6903" max="6903" width="13" style="5" customWidth="1"/>
-    <col min="6904" max="6904" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="6905" max="6905" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="6904" max="6904" width="15.125" style="5" customWidth="1"/>
+    <col min="6905" max="6905" width="20.375" style="5" customWidth="1"/>
     <col min="6906" max="6906" width="15.25" style="5" customWidth="1"/>
     <col min="6907" max="6907" width="28.25" style="5" customWidth="1"/>
     <col min="6908" max="6908" width="5.5" style="5" customWidth="1"/>
@@ -1618,8 +1621,8 @@
     <col min="6912" max="7157" width="9" style="5"/>
     <col min="7158" max="7158" width="5.75" style="5" customWidth="1"/>
     <col min="7159" max="7159" width="13" style="5" customWidth="1"/>
-    <col min="7160" max="7160" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="7161" max="7161" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="7160" max="7160" width="15.125" style="5" customWidth="1"/>
+    <col min="7161" max="7161" width="20.375" style="5" customWidth="1"/>
     <col min="7162" max="7162" width="15.25" style="5" customWidth="1"/>
     <col min="7163" max="7163" width="28.25" style="5" customWidth="1"/>
     <col min="7164" max="7164" width="5.5" style="5" customWidth="1"/>
@@ -1629,8 +1632,8 @@
     <col min="7168" max="7413" width="9" style="5"/>
     <col min="7414" max="7414" width="5.75" style="5" customWidth="1"/>
     <col min="7415" max="7415" width="13" style="5" customWidth="1"/>
-    <col min="7416" max="7416" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="7417" max="7417" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="7416" max="7416" width="15.125" style="5" customWidth="1"/>
+    <col min="7417" max="7417" width="20.375" style="5" customWidth="1"/>
     <col min="7418" max="7418" width="15.25" style="5" customWidth="1"/>
     <col min="7419" max="7419" width="28.25" style="5" customWidth="1"/>
     <col min="7420" max="7420" width="5.5" style="5" customWidth="1"/>
@@ -1640,8 +1643,8 @@
     <col min="7424" max="7669" width="9" style="5"/>
     <col min="7670" max="7670" width="5.75" style="5" customWidth="1"/>
     <col min="7671" max="7671" width="13" style="5" customWidth="1"/>
-    <col min="7672" max="7672" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="7673" max="7673" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="7672" max="7672" width="15.125" style="5" customWidth="1"/>
+    <col min="7673" max="7673" width="20.375" style="5" customWidth="1"/>
     <col min="7674" max="7674" width="15.25" style="5" customWidth="1"/>
     <col min="7675" max="7675" width="28.25" style="5" customWidth="1"/>
     <col min="7676" max="7676" width="5.5" style="5" customWidth="1"/>
@@ -1651,8 +1654,8 @@
     <col min="7680" max="7925" width="9" style="5"/>
     <col min="7926" max="7926" width="5.75" style="5" customWidth="1"/>
     <col min="7927" max="7927" width="13" style="5" customWidth="1"/>
-    <col min="7928" max="7928" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="7929" max="7929" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="7928" max="7928" width="15.125" style="5" customWidth="1"/>
+    <col min="7929" max="7929" width="20.375" style="5" customWidth="1"/>
     <col min="7930" max="7930" width="15.25" style="5" customWidth="1"/>
     <col min="7931" max="7931" width="28.25" style="5" customWidth="1"/>
     <col min="7932" max="7932" width="5.5" style="5" customWidth="1"/>
@@ -1662,8 +1665,8 @@
     <col min="7936" max="8181" width="9" style="5"/>
     <col min="8182" max="8182" width="5.75" style="5" customWidth="1"/>
     <col min="8183" max="8183" width="13" style="5" customWidth="1"/>
-    <col min="8184" max="8184" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="8185" max="8185" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="8184" max="8184" width="15.125" style="5" customWidth="1"/>
+    <col min="8185" max="8185" width="20.375" style="5" customWidth="1"/>
     <col min="8186" max="8186" width="15.25" style="5" customWidth="1"/>
     <col min="8187" max="8187" width="28.25" style="5" customWidth="1"/>
     <col min="8188" max="8188" width="5.5" style="5" customWidth="1"/>
@@ -1673,8 +1676,8 @@
     <col min="8192" max="8437" width="9" style="5"/>
     <col min="8438" max="8438" width="5.75" style="5" customWidth="1"/>
     <col min="8439" max="8439" width="13" style="5" customWidth="1"/>
-    <col min="8440" max="8440" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="8441" max="8441" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="8440" max="8440" width="15.125" style="5" customWidth="1"/>
+    <col min="8441" max="8441" width="20.375" style="5" customWidth="1"/>
     <col min="8442" max="8442" width="15.25" style="5" customWidth="1"/>
     <col min="8443" max="8443" width="28.25" style="5" customWidth="1"/>
     <col min="8444" max="8444" width="5.5" style="5" customWidth="1"/>
@@ -1684,8 +1687,8 @@
     <col min="8448" max="8693" width="9" style="5"/>
     <col min="8694" max="8694" width="5.75" style="5" customWidth="1"/>
     <col min="8695" max="8695" width="13" style="5" customWidth="1"/>
-    <col min="8696" max="8696" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="8697" max="8697" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="8696" max="8696" width="15.125" style="5" customWidth="1"/>
+    <col min="8697" max="8697" width="20.375" style="5" customWidth="1"/>
     <col min="8698" max="8698" width="15.25" style="5" customWidth="1"/>
     <col min="8699" max="8699" width="28.25" style="5" customWidth="1"/>
     <col min="8700" max="8700" width="5.5" style="5" customWidth="1"/>
@@ -1695,8 +1698,8 @@
     <col min="8704" max="8949" width="9" style="5"/>
     <col min="8950" max="8950" width="5.75" style="5" customWidth="1"/>
     <col min="8951" max="8951" width="13" style="5" customWidth="1"/>
-    <col min="8952" max="8952" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="8953" max="8953" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="8952" max="8952" width="15.125" style="5" customWidth="1"/>
+    <col min="8953" max="8953" width="20.375" style="5" customWidth="1"/>
     <col min="8954" max="8954" width="15.25" style="5" customWidth="1"/>
     <col min="8955" max="8955" width="28.25" style="5" customWidth="1"/>
     <col min="8956" max="8956" width="5.5" style="5" customWidth="1"/>
@@ -1706,8 +1709,8 @@
     <col min="8960" max="9205" width="9" style="5"/>
     <col min="9206" max="9206" width="5.75" style="5" customWidth="1"/>
     <col min="9207" max="9207" width="13" style="5" customWidth="1"/>
-    <col min="9208" max="9208" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="9209" max="9209" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="9208" max="9208" width="15.125" style="5" customWidth="1"/>
+    <col min="9209" max="9209" width="20.375" style="5" customWidth="1"/>
     <col min="9210" max="9210" width="15.25" style="5" customWidth="1"/>
     <col min="9211" max="9211" width="28.25" style="5" customWidth="1"/>
     <col min="9212" max="9212" width="5.5" style="5" customWidth="1"/>
@@ -1717,8 +1720,8 @@
     <col min="9216" max="9461" width="9" style="5"/>
     <col min="9462" max="9462" width="5.75" style="5" customWidth="1"/>
     <col min="9463" max="9463" width="13" style="5" customWidth="1"/>
-    <col min="9464" max="9464" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="9465" max="9465" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="9464" max="9464" width="15.125" style="5" customWidth="1"/>
+    <col min="9465" max="9465" width="20.375" style="5" customWidth="1"/>
     <col min="9466" max="9466" width="15.25" style="5" customWidth="1"/>
     <col min="9467" max="9467" width="28.25" style="5" customWidth="1"/>
     <col min="9468" max="9468" width="5.5" style="5" customWidth="1"/>
@@ -1728,8 +1731,8 @@
     <col min="9472" max="9717" width="9" style="5"/>
     <col min="9718" max="9718" width="5.75" style="5" customWidth="1"/>
     <col min="9719" max="9719" width="13" style="5" customWidth="1"/>
-    <col min="9720" max="9720" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="9721" max="9721" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="9720" max="9720" width="15.125" style="5" customWidth="1"/>
+    <col min="9721" max="9721" width="20.375" style="5" customWidth="1"/>
     <col min="9722" max="9722" width="15.25" style="5" customWidth="1"/>
     <col min="9723" max="9723" width="28.25" style="5" customWidth="1"/>
     <col min="9724" max="9724" width="5.5" style="5" customWidth="1"/>
@@ -1739,8 +1742,8 @@
     <col min="9728" max="9973" width="9" style="5"/>
     <col min="9974" max="9974" width="5.75" style="5" customWidth="1"/>
     <col min="9975" max="9975" width="13" style="5" customWidth="1"/>
-    <col min="9976" max="9976" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="9977" max="9977" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="9976" max="9976" width="15.125" style="5" customWidth="1"/>
+    <col min="9977" max="9977" width="20.375" style="5" customWidth="1"/>
     <col min="9978" max="9978" width="15.25" style="5" customWidth="1"/>
     <col min="9979" max="9979" width="28.25" style="5" customWidth="1"/>
     <col min="9980" max="9980" width="5.5" style="5" customWidth="1"/>
@@ -1750,8 +1753,8 @@
     <col min="9984" max="10229" width="9" style="5"/>
     <col min="10230" max="10230" width="5.75" style="5" customWidth="1"/>
     <col min="10231" max="10231" width="13" style="5" customWidth="1"/>
-    <col min="10232" max="10232" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="10233" max="10233" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="10232" max="10232" width="15.125" style="5" customWidth="1"/>
+    <col min="10233" max="10233" width="20.375" style="5" customWidth="1"/>
     <col min="10234" max="10234" width="15.25" style="5" customWidth="1"/>
     <col min="10235" max="10235" width="28.25" style="5" customWidth="1"/>
     <col min="10236" max="10236" width="5.5" style="5" customWidth="1"/>
@@ -1761,8 +1764,8 @@
     <col min="10240" max="10485" width="9" style="5"/>
     <col min="10486" max="10486" width="5.75" style="5" customWidth="1"/>
     <col min="10487" max="10487" width="13" style="5" customWidth="1"/>
-    <col min="10488" max="10488" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="10489" max="10489" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="10488" max="10488" width="15.125" style="5" customWidth="1"/>
+    <col min="10489" max="10489" width="20.375" style="5" customWidth="1"/>
     <col min="10490" max="10490" width="15.25" style="5" customWidth="1"/>
     <col min="10491" max="10491" width="28.25" style="5" customWidth="1"/>
     <col min="10492" max="10492" width="5.5" style="5" customWidth="1"/>
@@ -1772,8 +1775,8 @@
     <col min="10496" max="10741" width="9" style="5"/>
     <col min="10742" max="10742" width="5.75" style="5" customWidth="1"/>
     <col min="10743" max="10743" width="13" style="5" customWidth="1"/>
-    <col min="10744" max="10744" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="10745" max="10745" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="10744" max="10744" width="15.125" style="5" customWidth="1"/>
+    <col min="10745" max="10745" width="20.375" style="5" customWidth="1"/>
     <col min="10746" max="10746" width="15.25" style="5" customWidth="1"/>
     <col min="10747" max="10747" width="28.25" style="5" customWidth="1"/>
     <col min="10748" max="10748" width="5.5" style="5" customWidth="1"/>
@@ -1783,8 +1786,8 @@
     <col min="10752" max="10997" width="9" style="5"/>
     <col min="10998" max="10998" width="5.75" style="5" customWidth="1"/>
     <col min="10999" max="10999" width="13" style="5" customWidth="1"/>
-    <col min="11000" max="11000" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="11001" max="11001" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="11000" max="11000" width="15.125" style="5" customWidth="1"/>
+    <col min="11001" max="11001" width="20.375" style="5" customWidth="1"/>
     <col min="11002" max="11002" width="15.25" style="5" customWidth="1"/>
     <col min="11003" max="11003" width="28.25" style="5" customWidth="1"/>
     <col min="11004" max="11004" width="5.5" style="5" customWidth="1"/>
@@ -1794,8 +1797,8 @@
     <col min="11008" max="11253" width="9" style="5"/>
     <col min="11254" max="11254" width="5.75" style="5" customWidth="1"/>
     <col min="11255" max="11255" width="13" style="5" customWidth="1"/>
-    <col min="11256" max="11256" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="11257" max="11257" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="11256" max="11256" width="15.125" style="5" customWidth="1"/>
+    <col min="11257" max="11257" width="20.375" style="5" customWidth="1"/>
     <col min="11258" max="11258" width="15.25" style="5" customWidth="1"/>
     <col min="11259" max="11259" width="28.25" style="5" customWidth="1"/>
     <col min="11260" max="11260" width="5.5" style="5" customWidth="1"/>
@@ -1805,8 +1808,8 @@
     <col min="11264" max="11509" width="9" style="5"/>
     <col min="11510" max="11510" width="5.75" style="5" customWidth="1"/>
     <col min="11511" max="11511" width="13" style="5" customWidth="1"/>
-    <col min="11512" max="11512" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="11513" max="11513" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="11512" max="11512" width="15.125" style="5" customWidth="1"/>
+    <col min="11513" max="11513" width="20.375" style="5" customWidth="1"/>
     <col min="11514" max="11514" width="15.25" style="5" customWidth="1"/>
     <col min="11515" max="11515" width="28.25" style="5" customWidth="1"/>
     <col min="11516" max="11516" width="5.5" style="5" customWidth="1"/>
@@ -1816,8 +1819,8 @@
     <col min="11520" max="11765" width="9" style="5"/>
     <col min="11766" max="11766" width="5.75" style="5" customWidth="1"/>
     <col min="11767" max="11767" width="13" style="5" customWidth="1"/>
-    <col min="11768" max="11768" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="11769" max="11769" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="11768" max="11768" width="15.125" style="5" customWidth="1"/>
+    <col min="11769" max="11769" width="20.375" style="5" customWidth="1"/>
     <col min="11770" max="11770" width="15.25" style="5" customWidth="1"/>
     <col min="11771" max="11771" width="28.25" style="5" customWidth="1"/>
     <col min="11772" max="11772" width="5.5" style="5" customWidth="1"/>
@@ -1827,8 +1830,8 @@
     <col min="11776" max="12021" width="9" style="5"/>
     <col min="12022" max="12022" width="5.75" style="5" customWidth="1"/>
     <col min="12023" max="12023" width="13" style="5" customWidth="1"/>
-    <col min="12024" max="12024" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="12025" max="12025" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="12024" max="12024" width="15.125" style="5" customWidth="1"/>
+    <col min="12025" max="12025" width="20.375" style="5" customWidth="1"/>
     <col min="12026" max="12026" width="15.25" style="5" customWidth="1"/>
     <col min="12027" max="12027" width="28.25" style="5" customWidth="1"/>
     <col min="12028" max="12028" width="5.5" style="5" customWidth="1"/>
@@ -1838,8 +1841,8 @@
     <col min="12032" max="12277" width="9" style="5"/>
     <col min="12278" max="12278" width="5.75" style="5" customWidth="1"/>
     <col min="12279" max="12279" width="13" style="5" customWidth="1"/>
-    <col min="12280" max="12280" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="12281" max="12281" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="12280" max="12280" width="15.125" style="5" customWidth="1"/>
+    <col min="12281" max="12281" width="20.375" style="5" customWidth="1"/>
     <col min="12282" max="12282" width="15.25" style="5" customWidth="1"/>
     <col min="12283" max="12283" width="28.25" style="5" customWidth="1"/>
     <col min="12284" max="12284" width="5.5" style="5" customWidth="1"/>
@@ -1849,8 +1852,8 @@
     <col min="12288" max="12533" width="9" style="5"/>
     <col min="12534" max="12534" width="5.75" style="5" customWidth="1"/>
     <col min="12535" max="12535" width="13" style="5" customWidth="1"/>
-    <col min="12536" max="12536" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="12537" max="12537" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="12536" max="12536" width="15.125" style="5" customWidth="1"/>
+    <col min="12537" max="12537" width="20.375" style="5" customWidth="1"/>
     <col min="12538" max="12538" width="15.25" style="5" customWidth="1"/>
     <col min="12539" max="12539" width="28.25" style="5" customWidth="1"/>
     <col min="12540" max="12540" width="5.5" style="5" customWidth="1"/>
@@ -1860,8 +1863,8 @@
     <col min="12544" max="12789" width="9" style="5"/>
     <col min="12790" max="12790" width="5.75" style="5" customWidth="1"/>
     <col min="12791" max="12791" width="13" style="5" customWidth="1"/>
-    <col min="12792" max="12792" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="12793" max="12793" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="12792" max="12792" width="15.125" style="5" customWidth="1"/>
+    <col min="12793" max="12793" width="20.375" style="5" customWidth="1"/>
     <col min="12794" max="12794" width="15.25" style="5" customWidth="1"/>
     <col min="12795" max="12795" width="28.25" style="5" customWidth="1"/>
     <col min="12796" max="12796" width="5.5" style="5" customWidth="1"/>
@@ -1871,8 +1874,8 @@
     <col min="12800" max="13045" width="9" style="5"/>
     <col min="13046" max="13046" width="5.75" style="5" customWidth="1"/>
     <col min="13047" max="13047" width="13" style="5" customWidth="1"/>
-    <col min="13048" max="13048" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="13049" max="13049" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="13048" max="13048" width="15.125" style="5" customWidth="1"/>
+    <col min="13049" max="13049" width="20.375" style="5" customWidth="1"/>
     <col min="13050" max="13050" width="15.25" style="5" customWidth="1"/>
     <col min="13051" max="13051" width="28.25" style="5" customWidth="1"/>
     <col min="13052" max="13052" width="5.5" style="5" customWidth="1"/>
@@ -1882,8 +1885,8 @@
     <col min="13056" max="13301" width="9" style="5"/>
     <col min="13302" max="13302" width="5.75" style="5" customWidth="1"/>
     <col min="13303" max="13303" width="13" style="5" customWidth="1"/>
-    <col min="13304" max="13304" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="13305" max="13305" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="13304" max="13304" width="15.125" style="5" customWidth="1"/>
+    <col min="13305" max="13305" width="20.375" style="5" customWidth="1"/>
     <col min="13306" max="13306" width="15.25" style="5" customWidth="1"/>
     <col min="13307" max="13307" width="28.25" style="5" customWidth="1"/>
     <col min="13308" max="13308" width="5.5" style="5" customWidth="1"/>
@@ -1893,8 +1896,8 @@
     <col min="13312" max="13557" width="9" style="5"/>
     <col min="13558" max="13558" width="5.75" style="5" customWidth="1"/>
     <col min="13559" max="13559" width="13" style="5" customWidth="1"/>
-    <col min="13560" max="13560" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="13561" max="13561" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="13560" max="13560" width="15.125" style="5" customWidth="1"/>
+    <col min="13561" max="13561" width="20.375" style="5" customWidth="1"/>
     <col min="13562" max="13562" width="15.25" style="5" customWidth="1"/>
     <col min="13563" max="13563" width="28.25" style="5" customWidth="1"/>
     <col min="13564" max="13564" width="5.5" style="5" customWidth="1"/>
@@ -1904,8 +1907,8 @@
     <col min="13568" max="13813" width="9" style="5"/>
     <col min="13814" max="13814" width="5.75" style="5" customWidth="1"/>
     <col min="13815" max="13815" width="13" style="5" customWidth="1"/>
-    <col min="13816" max="13816" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="13817" max="13817" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="13816" max="13816" width="15.125" style="5" customWidth="1"/>
+    <col min="13817" max="13817" width="20.375" style="5" customWidth="1"/>
     <col min="13818" max="13818" width="15.25" style="5" customWidth="1"/>
     <col min="13819" max="13819" width="28.25" style="5" customWidth="1"/>
     <col min="13820" max="13820" width="5.5" style="5" customWidth="1"/>
@@ -1915,8 +1918,8 @@
     <col min="13824" max="14069" width="9" style="5"/>
     <col min="14070" max="14070" width="5.75" style="5" customWidth="1"/>
     <col min="14071" max="14071" width="13" style="5" customWidth="1"/>
-    <col min="14072" max="14072" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="14073" max="14073" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="14072" max="14072" width="15.125" style="5" customWidth="1"/>
+    <col min="14073" max="14073" width="20.375" style="5" customWidth="1"/>
     <col min="14074" max="14074" width="15.25" style="5" customWidth="1"/>
     <col min="14075" max="14075" width="28.25" style="5" customWidth="1"/>
     <col min="14076" max="14076" width="5.5" style="5" customWidth="1"/>
@@ -1926,8 +1929,8 @@
     <col min="14080" max="14325" width="9" style="5"/>
     <col min="14326" max="14326" width="5.75" style="5" customWidth="1"/>
     <col min="14327" max="14327" width="13" style="5" customWidth="1"/>
-    <col min="14328" max="14328" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="14329" max="14329" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="14328" max="14328" width="15.125" style="5" customWidth="1"/>
+    <col min="14329" max="14329" width="20.375" style="5" customWidth="1"/>
     <col min="14330" max="14330" width="15.25" style="5" customWidth="1"/>
     <col min="14331" max="14331" width="28.25" style="5" customWidth="1"/>
     <col min="14332" max="14332" width="5.5" style="5" customWidth="1"/>
@@ -1937,8 +1940,8 @@
     <col min="14336" max="14581" width="9" style="5"/>
     <col min="14582" max="14582" width="5.75" style="5" customWidth="1"/>
     <col min="14583" max="14583" width="13" style="5" customWidth="1"/>
-    <col min="14584" max="14584" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="14585" max="14585" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="14584" max="14584" width="15.125" style="5" customWidth="1"/>
+    <col min="14585" max="14585" width="20.375" style="5" customWidth="1"/>
     <col min="14586" max="14586" width="15.25" style="5" customWidth="1"/>
     <col min="14587" max="14587" width="28.25" style="5" customWidth="1"/>
     <col min="14588" max="14588" width="5.5" style="5" customWidth="1"/>
@@ -1948,8 +1951,8 @@
     <col min="14592" max="14837" width="9" style="5"/>
     <col min="14838" max="14838" width="5.75" style="5" customWidth="1"/>
     <col min="14839" max="14839" width="13" style="5" customWidth="1"/>
-    <col min="14840" max="14840" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="14841" max="14841" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="14840" max="14840" width="15.125" style="5" customWidth="1"/>
+    <col min="14841" max="14841" width="20.375" style="5" customWidth="1"/>
     <col min="14842" max="14842" width="15.25" style="5" customWidth="1"/>
     <col min="14843" max="14843" width="28.25" style="5" customWidth="1"/>
     <col min="14844" max="14844" width="5.5" style="5" customWidth="1"/>
@@ -1959,8 +1962,8 @@
     <col min="14848" max="15093" width="9" style="5"/>
     <col min="15094" max="15094" width="5.75" style="5" customWidth="1"/>
     <col min="15095" max="15095" width="13" style="5" customWidth="1"/>
-    <col min="15096" max="15096" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="15097" max="15097" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="15096" max="15096" width="15.125" style="5" customWidth="1"/>
+    <col min="15097" max="15097" width="20.375" style="5" customWidth="1"/>
     <col min="15098" max="15098" width="15.25" style="5" customWidth="1"/>
     <col min="15099" max="15099" width="28.25" style="5" customWidth="1"/>
     <col min="15100" max="15100" width="5.5" style="5" customWidth="1"/>
@@ -1970,8 +1973,8 @@
     <col min="15104" max="15349" width="9" style="5"/>
     <col min="15350" max="15350" width="5.75" style="5" customWidth="1"/>
     <col min="15351" max="15351" width="13" style="5" customWidth="1"/>
-    <col min="15352" max="15352" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="15353" max="15353" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="15352" max="15352" width="15.125" style="5" customWidth="1"/>
+    <col min="15353" max="15353" width="20.375" style="5" customWidth="1"/>
     <col min="15354" max="15354" width="15.25" style="5" customWidth="1"/>
     <col min="15355" max="15355" width="28.25" style="5" customWidth="1"/>
     <col min="15356" max="15356" width="5.5" style="5" customWidth="1"/>
@@ -1981,8 +1984,8 @@
     <col min="15360" max="15605" width="9" style="5"/>
     <col min="15606" max="15606" width="5.75" style="5" customWidth="1"/>
     <col min="15607" max="15607" width="13" style="5" customWidth="1"/>
-    <col min="15608" max="15608" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="15609" max="15609" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="15608" max="15608" width="15.125" style="5" customWidth="1"/>
+    <col min="15609" max="15609" width="20.375" style="5" customWidth="1"/>
     <col min="15610" max="15610" width="15.25" style="5" customWidth="1"/>
     <col min="15611" max="15611" width="28.25" style="5" customWidth="1"/>
     <col min="15612" max="15612" width="5.5" style="5" customWidth="1"/>
@@ -1992,8 +1995,8 @@
     <col min="15616" max="15861" width="9" style="5"/>
     <col min="15862" max="15862" width="5.75" style="5" customWidth="1"/>
     <col min="15863" max="15863" width="13" style="5" customWidth="1"/>
-    <col min="15864" max="15864" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="15865" max="15865" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="15864" max="15864" width="15.125" style="5" customWidth="1"/>
+    <col min="15865" max="15865" width="20.375" style="5" customWidth="1"/>
     <col min="15866" max="15866" width="15.25" style="5" customWidth="1"/>
     <col min="15867" max="15867" width="28.25" style="5" customWidth="1"/>
     <col min="15868" max="15868" width="5.5" style="5" customWidth="1"/>
@@ -2003,8 +2006,8 @@
     <col min="15872" max="16117" width="9" style="5"/>
     <col min="16118" max="16118" width="5.75" style="5" customWidth="1"/>
     <col min="16119" max="16119" width="13" style="5" customWidth="1"/>
-    <col min="16120" max="16120" width="15.1333333333333" style="5" customWidth="1"/>
-    <col min="16121" max="16121" width="20.3833333333333" style="5" customWidth="1"/>
+    <col min="16120" max="16120" width="15.125" style="5" customWidth="1"/>
+    <col min="16121" max="16121" width="20.375" style="5" customWidth="1"/>
     <col min="16122" max="16122" width="15.25" style="5" customWidth="1"/>
     <col min="16123" max="16123" width="28.25" style="5" customWidth="1"/>
     <col min="16124" max="16124" width="5.5" style="5" customWidth="1"/>
@@ -2038,7 +2041,7 @@
       </c>
       <c r="D2" s="10">
         <f ca="1">NOW()</f>
-        <v>44397.7006134259</v>
+        <v>44398.4272685185</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>3</v>
@@ -2103,14 +2106,14 @@
         <v>18</v>
       </c>
       <c r="G4" s="14">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H4" s="14">
         <f t="shared" ref="H4:H17" si="0">G4*E4</f>
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="I4" s="15">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -2132,10 +2135,10 @@
         <v>22</v>
       </c>
       <c r="G5" s="14">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H5" s="14">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="30"/>
@@ -2160,11 +2163,11 @@
         <v>18</v>
       </c>
       <c r="G6" s="14">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="30"/>
@@ -2187,11 +2190,11 @@
         <v>18</v>
       </c>
       <c r="G7" s="14">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H7" s="14">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I7" s="15">
         <v>15000</v>
@@ -2216,11 +2219,11 @@
         <v>18</v>
       </c>
       <c r="G8" s="14">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="H8" s="14">
         <f t="shared" si="0"/>
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="I8" s="15">
         <v>10000</v>
@@ -2247,13 +2250,15 @@
         <v>18</v>
       </c>
       <c r="G9" s="14">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="I9" s="15"/>
+        <v>6.5</v>
+      </c>
+      <c r="I9" s="15">
+        <v>3000</v>
+      </c>
       <c r="J9" s="30"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="17.25" spans="1:10">
@@ -2276,11 +2281,11 @@
         <v>18</v>
       </c>
       <c r="G10" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="31"/>
@@ -2305,11 +2310,11 @@
         <v>18</v>
       </c>
       <c r="G11" s="14">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="I11" s="15">
         <v>15000</v>
@@ -2334,11 +2339,11 @@
         <v>18</v>
       </c>
       <c r="G12" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="30"/>
@@ -2363,14 +2368,14 @@
         <v>18</v>
       </c>
       <c r="G13" s="14">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="I13" s="15">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="J13" s="30"/>
     </row>
@@ -2394,14 +2399,14 @@
         <v>18</v>
       </c>
       <c r="G14" s="14">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="I14" s="15">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="J14" s="29"/>
     </row>
@@ -2412,7 +2417,9 @@
       <c r="B15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="D15" s="12" t="s">
         <v>17</v>
       </c>
@@ -2423,11 +2430,11 @@
         <v>18</v>
       </c>
       <c r="G15" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15" s="15">
         <v>20000</v>
@@ -2439,7 +2446,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -2464,10 +2471,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="15">
@@ -2491,7 +2498,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -2512,7 +2519,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -2552,18 +2559,17 @@
       </c>
       <c r="H21" s="23">
         <f>SUM(H4:H20)</f>
-        <v>41.7</v>
+        <v>28.4</v>
       </c>
       <c r="I21" s="35">
         <f>SUM(I4:I19)</f>
-        <v>150000</v>
+        <v>173000</v>
       </c>
       <c r="J21" s="23"/>
     </row>
     <row r="22" customHeight="1" spans="5:8">
       <c r="E22" s="27"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="3"/>
       <c r="H22" s="4"/>
     </row>
   </sheetData>
